--- a/Documents/王宇_participant information.xlsx
+++ b/Documents/王宇_participant information.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">投入本项目的全时工作时间（人月）      </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,11 +140,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物理电子学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEPC DHCAL读出电子学负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -667,7 +687,9 @@
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
@@ -677,9 +699,15 @@
       <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
@@ -696,12 +724,14 @@
         <v>25</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3"/>
